--- a/latest/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -196,7 +196,7 @@
     <t>Revision:</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0-RC1</t>
   </si>
   <si>
     <t>Date:</t>

--- a/latest/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
   <si>
     <t>Row</t>
   </si>
@@ -124,10 +124,10 @@
     <t>Conn_02x02_Odd_Even</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
-    <t>edge</t>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>middle</t>
   </si>
   <si>
     <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
@@ -148,30 +148,15 @@
     <t>R</t>
   </si>
   <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>0</t>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>330</t>
   </si>
   <si>
     <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
   </si>
   <si>
-    <t>https://industrial.panasonic.com/cdbs/www-data/pdf/RDA0000/AOA0000C301.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/en/products/detail/panasonic-electronic-components/ERJ-1GN0R00C/3982613</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
     <t>https://api.pim.na.industrial.panasonic.com/file_stream/main/fileversion/1242</t>
   </si>
   <si>
@@ -217,13 +202,13 @@
     <t>Component Count:</t>
   </si>
   <si>
-    <t>29 (29 SMD/ 0 THT)</t>
+    <t>27 (27 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Fitted Components:</t>
   </si>
   <si>
-    <t>27 (27 SMD/ 0 THT)</t>
+    <t>26 (26 SMD/ 0 THT)</t>
   </si>
   <si>
     <t>Number of PCBs:</t>
@@ -254,12 +239,6 @@
   </si>
   <si>
     <t>1=K 2=A</t>
-  </si>
-  <si>
-    <t>J1</t>
-  </si>
-  <si>
-    <t>middle</t>
   </si>
   <si>
     <t>KiCad Fields (default)</t>
@@ -820,7 +799,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -845,7 +824,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -859,55 +838,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -915,16 +894,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1114,44 +1093,6 @@
         <v>22</v>
       </c>
       <c r="L12" s="12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1167,7 +1108,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
@@ -1177,14 +1118,14 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="44.7109375" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
@@ -1192,7 +1133,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="32" customHeight="1">
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1206,55 +1147,55 @@
     </row>
     <row r="2" spans="1:12">
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F2" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="C3" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F5" s="3">
         <v>1</v>
@@ -1262,16 +1203,16 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F6" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1317,75 +1258,37 @@
         <v>12</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>22</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>22</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1411,22 +1314,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -73,7 +73,7 @@
     <t>1uF</t>
   </si>
   <si>
-    <t>C_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+    <t>C_0402_1005Metric</t>
   </si>
   <si>
     <t>12</t>
@@ -127,7 +127,7 @@
     <t>J1</t>
   </si>
   <si>
-    <t>middle</t>
+    <t>02x02</t>
   </si>
   <si>
     <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
@@ -154,7 +154,7 @@
     <t>330</t>
   </si>
   <si>
-    <t>R_0201_0603Metric_Pad0.64x0.40mm_HandSolder</t>
+    <t>R_0402_1005Metric</t>
   </si>
   <si>
     <t>https://api.pim.na.industrial.panasonic.com/file_stream/main/fileversion/1242</t>
@@ -813,7 +813,7 @@
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="4" max="4" width="43.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="48.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="60.7109375" customWidth="1"/>

--- a/latest/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="78">
   <si>
     <t>Row</t>
   </si>
@@ -85,7 +85,7 @@
     <t>https://media.digikey.com/pdf/Data%20Sheets/Samsung%20PDFs/CL_Series_MLCC_ds.pdf</t>
   </si>
   <si>
-    <t>https://www.digikey.ch/en/products/detail/samsung-electro-mechanics/CL03A105MQ3CSNH/3894097</t>
+    <t>https://www.digikey.ch/de/products/detail/samsung-electro-mechanics/CL05A105KP5NNNC/3886734</t>
   </si>
   <si>
     <t/>
@@ -109,7 +109,7 @@
     <t>LED_SK6812_EC15_1.5x1.5mm</t>
   </si>
   <si>
-    <t>http://www.normandled.com/upload/202112/SK9810-EC15%20LED%20Datasheet.pdf</t>
+    <t>https://mm.digikey.com/Volume0/opasdata/d220001/medias/docus/2384/CL05A105KP5NNN_Specsheet%20(1).pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/en/products/detail/adafruit-industries-llc/4492/11569136</t>
@@ -133,10 +133,10 @@
     <t>PinSocket_2x02_P2.00mm_Vertical_SMD</t>
   </si>
   <si>
-    <t>https://gct.co/files/drawings/bf100.pdf</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/en/products/detail/gct/BF100-04-A-D-1-0640-L-C/16396866</t>
+    <t>https://www.we-online.com/components/products/datasheet/621004242921.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/w%C3%BCrth-elektronik/621004242921/15672146</t>
   </si>
   <si>
     <t>4</t>
@@ -157,10 +157,10 @@
     <t>R_0402_1005Metric</t>
   </si>
   <si>
-    <t>https://api.pim.na.industrial.panasonic.com/file_stream/main/fileversion/1242</t>
-  </si>
-  <si>
-    <t>https://www.digikey.ch/en/products/detail/panasonic-electronic-components/ERJ-1GNJ331C/2035775</t>
+    <t>https://www.passivecomponent.com/wp-content/uploads/chipR/ASC_WR.pdf</t>
+  </si>
+  <si>
+    <t>https://www.digikey.ch/en/products/detail/walsin-technology-corporation/WR04X3300FTL/13239224</t>
   </si>
   <si>
     <t>KiBot Bill of Materials</t>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t xml:space="preserve"> (DNF)</t>
+  </si>
+  <si>
+    <t>https://www.onsemi.com/pdf/datasheet/nsr05t40p2-d.pdf</t>
   </si>
   <si>
     <t>https://www.digikey.ch/de/products/detail/onsemi/NSR05T40P2T5G/5761753</t>
@@ -1125,7 +1128,7 @@
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" customWidth="1"/>
     <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="58.7109375" customWidth="1"/>
     <col min="10" max="10" width="60.7109375" customWidth="1"/>
     <col min="11" max="11" width="20.7109375" customWidth="1"/>
     <col min="12" max="12" width="18.7109375" customWidth="1"/>
@@ -1278,17 +1281,17 @@
       <c r="H9" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>22</v>
+      <c r="I9" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1314,22 +1317,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/latest/BoM/Generic/pedalboard-led-ring-bom.xlsx
+++ b/latest/BoM/Generic/pedalboard-led-ring-bom.xlsx
@@ -193,7 +193,7 @@
     <t>KiCad Version:</t>
   </si>
   <si>
-    <t>7.0.8-7.0.8~ubuntu23.04.1</t>
+    <t>7.0.9-7.0.9~ubuntu23.04.1</t>
   </si>
   <si>
     <t>Component Groups:</t>
